--- a/Resource/excel/社交-关系配置.xlsx
+++ b/Resource/excel/社交-关系配置.xlsx
@@ -142,26 +142,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,29 +233,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,30 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,44 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,24 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -568,11 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +572,33 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,21 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,10 +640,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +652,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1220,10 +1220,10 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1387,7 +1387,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>27</v>
